--- a/data/trans_camb/P37A-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P37A-Edad-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K31"/>
+  <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,12 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +548,26 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -572,37 +584,67 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>Mz1/M2</t>
+          <t>M5/M2</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
         </is>
       </c>
     </row>
@@ -618,6 +660,12 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +680,77 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-0,1</t>
+          <t>0,99</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>1,93</t>
+          <t>1,29</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>4,35</t>
+          <t>-9,97</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-4,11</t>
+          <t>4,74</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-4,63</t>
+          <t>-10,03</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-14,62</t>
+          <t>-5,6</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-2,13</t>
+          <t>-3,62</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-1,44</t>
+          <t>-3,85</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-4,53</t>
+          <t>-0,43</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>10,21</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>-2,32</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>-1,25</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>-6,93</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>2,22</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>-0,48</t>
         </is>
       </c>
     </row>
@@ -685,47 +763,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-10,82; 10,51</t>
+          <t>-10,05; 11,07</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-9,14; 11,57</t>
+          <t>-10,74; 11,28</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-7,88; 13,97</t>
+          <t>-22,5; 1,07</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-14,4; 5,29</t>
+          <t>-9,26; 18,01</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-15,52; 5,19</t>
+          <t>-23,42; 2,65</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-26,61; -2,8</t>
+          <t>-15,07; 3,92</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-8,88; 5,16</t>
+          <t>-12,51; 6,85</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-8,94; 5,29</t>
+          <t>-14,5; 6,24</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-13,01; 3,95</t>
+          <t>-11,43; 10,43</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-1,34; 24,74</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-9,57; 4,89</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-8,15; 6,49</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>-16,07; 0,62</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>-7,59; 11,1</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>-9,24; 8,94</t>
         </is>
       </c>
     </row>
@@ -738,47 +846,77 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-0,13%</t>
+          <t>1,26%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>2,46%</t>
+          <t>1,65%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>5,54%</t>
+          <t>-12,77%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-5,48%</t>
+          <t>6,96%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-6,16%</t>
+          <t>-12,1%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-19,48%</t>
+          <t>-7,47%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-2,77%</t>
+          <t>-4,83%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-1,87%</t>
+          <t>-5,13%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-5,89%</t>
+          <t>-0,6%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>16,9%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>-3,04%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>-1,63%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>-9,05%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>3,19%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>-0,66%</t>
         </is>
       </c>
     </row>
@@ -791,47 +929,77 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-12,99; 14,4</t>
+          <t>-11,83; 15,23</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-11,43; 15,89</t>
+          <t>-12,86; 15,37</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-9,3; 19,05</t>
+          <t>-27,56; 1,38</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-18,09; 7,46</t>
+          <t>-12,36; 29,42</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-19,37; 7,39</t>
+          <t>-26,93; 3,21</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-34,63; -4,28</t>
+          <t>-19,5; 5,7</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-11,09; 6,86</t>
+          <t>-15,99; 9,81</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-11,0; 7,33</t>
+          <t>-18,01; 8,87</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-16,58; 5,38</t>
+          <t>-14,67; 16,0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-1,81; 46,88</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-11,99; 6,68</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-10,45; 8,97</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>-20,28; 0,82</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>-10,37; 17,19</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>-12,23; 13,14</t>
         </is>
       </c>
     </row>
@@ -848,47 +1016,77 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-1,14</t>
+          <t>-1,22</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-5,87</t>
+          <t>-6,45</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-12,72</t>
+          <t>-4,19</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-6,07</t>
+          <t>-2,67</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-6,12</t>
+          <t>5,74</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-6,21</t>
+          <t>-5,79</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-3,42</t>
+          <t>-6,09</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-5,84</t>
+          <t>-11,59</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-9,63</t>
+          <t>2,59</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>-2,79</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>-3,37</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>-6,16</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>-7,52</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>-0,62</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>1,47</t>
         </is>
       </c>
     </row>
@@ -901,47 +1099,77 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-11,54; 10,78</t>
+          <t>-10,27; 13,38</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-16,59; 7,34</t>
+          <t>-18,4; 6,71</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-25,88; 1,39</t>
+          <t>-14,97; 12,28</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-16,63; 2,59</t>
+          <t>-15,7; 9,8</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-15,74; 3,68</t>
+          <t>-7,5; 19,66</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-17,23; 4,32</t>
+          <t>-15,09; 3,6</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-9,9; 4,45</t>
+          <t>-16,14; 3,31</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-13,58; 1,97</t>
+          <t>-21,59; -0,57</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-18,31; -1,25</t>
+          <t>-8,57; 12,97</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-13,45; 7,72</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-9,95; 4,58</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-13,91; 2,3</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>-15,44; 1,26</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>-8,73; 8,37</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>-6,77; 11,41</t>
         </is>
       </c>
     </row>
@@ -954,47 +1182,77 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-1,41%</t>
+          <t>-1,52%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-7,27%</t>
+          <t>-8,01%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-15,77%</t>
+          <t>-5,21%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-8,83%</t>
+          <t>-3,5%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-8,91%</t>
+          <t>8,46%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-9,04%</t>
+          <t>-8,44%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-4,56%</t>
+          <t>-8,87%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-7,79%</t>
+          <t>-16,87%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-12,85%</t>
+          <t>4,54%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>-4,46%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>-4,49%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>-8,22%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>-10,04%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>-0,93%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>2,26%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1265,77 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-13,2; 15,09</t>
+          <t>-11,78; 19,53</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-19,46; 9,9</t>
+          <t>-21,76; 9,39</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-30,81; 1,34</t>
+          <t>-17,59; 17,07</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-22,34; 4,18</t>
+          <t>-19,15; 14,1</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-21,5; 5,9</t>
+          <t>-9,87; 32,7</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-23,14; 6,99</t>
+          <t>-21,02; 4,95</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-12,81; 6,14</t>
+          <t>-21,7; 5,4</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-17,12; 2,87</t>
+          <t>-29,95; -1,14</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-23,42; -1,78</t>
+          <t>-13,85; 24,84</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-19,69; 13,4</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-12,75; 6,75</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-17,89; 2,93</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>-19,82; 1,79</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>-12,26; 13,5</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>-9,58; 18,93</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1352,77 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-0,41</t>
+          <t>1,74</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-0,11</t>
+          <t>2,88</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>1,39</t>
+          <t>-1,84</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-0,25</t>
+          <t>-2,32</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-1,88</t>
+          <t>-7,99</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-2,53</t>
+          <t>-1,23</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-0,37</t>
+          <t>-2,57</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-1,11</t>
+          <t>-9,14</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-0,25</t>
+          <t>2,18</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>-3,9</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>0,23</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>0,04</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>-5,58</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>0,2</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>-6,11</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1435,77 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-9,44; 8,06</t>
+          <t>-6,91; 11,49</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-10,68; 7,9</t>
+          <t>-7,0; 11,11</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-7,11; 10,31</t>
+          <t>-11,39; 7,8</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-7,11; 7,58</t>
+          <t>-12,89; 7,06</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-8,96; 5,73</t>
+          <t>-17,6; 1,47</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-11,24; 6,28</t>
+          <t>-8,27; 6,37</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-6,77; 6,04</t>
+          <t>-9,58; 4,75</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-7,18; 5,24</t>
+          <t>-16,96; -0,9</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-6,82; 5,72</t>
+          <t>-6,04; 11,4</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>-12,41; 5,48</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>-5,66; 5,97</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>-5,87; 5,97</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>-12,0; 1,0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>-6,45; 6,93</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>-12,85; 0,26</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1518,77 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-0,55%</t>
+          <t>2,43%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-0,15%</t>
+          <t>4,02%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>1,87%</t>
+          <t>-2,57%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-0,36%</t>
+          <t>-3,33%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-2,75%</t>
+          <t>-10,59%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-3,72%</t>
+          <t>-1,8%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-0,52%</t>
+          <t>-3,74%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-1,57%</t>
+          <t>-13,31%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-0,35%</t>
+          <t>3,67%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>-5,95%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>0,32%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>0,06%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>-7,96%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>0,31%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>-8,62%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1601,77 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-12,01; 11,69</t>
+          <t>-8,91; 17,82</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-13,67; 11,19</t>
+          <t>-9,16; 16,68</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-8,94; 15,14</t>
+          <t>-14,8; 11,72</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-9,95; 12,13</t>
+          <t>-17,3; 10,85</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-12,3; 9,02</t>
+          <t>-22,58; 2,09</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-15,67; 9,72</t>
+          <t>-11,51; 9,87</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-9,04; 9,12</t>
+          <t>-13,3; 7,43</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-9,8; 7,79</t>
+          <t>-23,38; -1,29</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-9,18; 8,54</t>
+          <t>-9,74; 20,6</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>-18,5; 8,76</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>-7,74; 8,84</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>-8,0; 9,06</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>-16,31; 1,49</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>-9,75; 11,37</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>-17,81; 0,37</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1688,77 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-1,86</t>
+          <t>-1,5</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,63</t>
+          <t>1,1</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-1,93</t>
+          <t>-4,98</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-4,01</t>
+          <t>-0,53</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-6,03</t>
+          <t>-4,67</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-10,64</t>
+          <t>-3,98</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-2,9</t>
+          <t>-6,11</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-2,63</t>
+          <t>-7,16</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-5,59</t>
+          <t>-1,1</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>2,04</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>-2,75</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>-2,5</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>-5,95</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>-0,59</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>-1,61</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1771,77 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-8,97; 5,52</t>
+          <t>-8,86; 6,5</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-6,8; 8,24</t>
+          <t>-6,28; 8,98</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-10,36; 7,09</t>
+          <t>-15,01; 3,73</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-11,93; 3,64</t>
+          <t>-9,35; 8,7</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-13,55; 1,43</t>
+          <t>-13,48; 4,13</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-19,25; -2,57</t>
+          <t>-11,48; 3,3</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-8,02; 2,3</t>
+          <t>-13,29; 1,2</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-7,59; 3,05</t>
+          <t>-15,03; 0,93</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-12,33; 0,42</t>
+          <t>-8,89; 7,84</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>-7,72; 10,99</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>-7,46; 3,2</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>-7,78; 2,76</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>-12,58; -0,07</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>-7,11; 5,68</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>-8,86; 4,55</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1854,77 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-2,35%</t>
+          <t>-1,92%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>0,79%</t>
+          <t>1,41%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-2,44%</t>
+          <t>-6,39%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-5,84%</t>
+          <t>-0,73%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-8,77%</t>
+          <t>-6,05%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-15,48%</t>
+          <t>-5,82%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-3,93%</t>
+          <t>-8,92%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-3,56%</t>
+          <t>-10,46%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-7,58%</t>
+          <t>-1,79%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>3,5%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>-3,77%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>-3,42%</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>-8,14%</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>-0,88%</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>-2,36%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1937,77 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-10,73; 7,43</t>
+          <t>-10,88; 8,83</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-8,29; 11,43</t>
+          <t>-7,9; 12,51</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-12,84; 9,43</t>
+          <t>-18,6; 4,93</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-16,17; 5,35</t>
+          <t>-12,06; 12,84</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-18,49; 2,22</t>
+          <t>-16,44; 5,82</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-26,65; -3,79</t>
+          <t>-15,84; 5,07</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-10,45; 3,26</t>
+          <t>-18,74; 1,9</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-9,9; 4,31</t>
+          <t>-21,23; 1,06</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-16,4; 0,58</t>
+          <t>-14,0; 13,4</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>-12,42; 20,56</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>-9,96; 4,6</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>-10,29; 3,88</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>-16,41; -0,35</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>-10,3; 8,87</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>-12,4; 6,74</t>
         </is>
       </c>
     </row>
@@ -1496,47 +2024,77 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,41</t>
+          <t>0,13</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,04</t>
+          <t>0,15</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>-4,36</t>
+          <t>-0,78</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>-2,11</t>
+          <t>-13,57</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>-0,83</t>
+          <t>-10,14</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>-9,29</t>
+          <t>-2,01</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>-0,77</t>
+          <t>-0,46</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>-0,44</t>
+          <t>-11,01</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>-7,04</t>
+          <t>3,11</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>1,08</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>-0,87</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>-0,22</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>-6,05</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>-5,06</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>-4,3</t>
         </is>
       </c>
     </row>
@@ -1549,47 +2107,77 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-6,06; 9,28</t>
+          <t>-6,5; 9,05</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-6,69; 8,19</t>
+          <t>-6,6; 8,26</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-12,8; 4,41</t>
+          <t>-7,31; 7,6</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-9,45; 5,46</t>
+          <t>-22,02; -5,66</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-8,5; 6,19</t>
+          <t>-18,6; -0,65</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-17,48; -0,66</t>
+          <t>-10,65; 5,05</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-5,63; 5,16</t>
+          <t>-8,44; 6,6</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-5,88; 5,09</t>
+          <t>-19,87; -1,37</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-12,82; -1,23</t>
+          <t>-6,14; 12,58</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>-7,95; 9,91</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>-6,01; 5,16</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>-5,02; 5,77</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>-11,45; 0,04</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>-12,05; 1,05</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>-10,72; 2,07</t>
         </is>
       </c>
     </row>
@@ -1602,47 +2190,77 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>0,48%</t>
+          <t>0,15%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>0,05%</t>
+          <t>0,17%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>-5,14%</t>
+          <t>-0,92%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>-2,67%</t>
+          <t>-16,17%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
+          <t>-12,59%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>-2,57%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>-0,58%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>-14,04%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>4,61%</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>1,55%</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
           <t>-1,06%</t>
         </is>
       </c>
-      <c r="H22" s="2" t="inlineStr">
-        <is>
-          <t>-11,8%</t>
-        </is>
-      </c>
-      <c r="I22" s="2" t="inlineStr">
-        <is>
-          <t>-0,94%</t>
-        </is>
-      </c>
-      <c r="J22" s="2" t="inlineStr">
-        <is>
-          <t>-0,54%</t>
-        </is>
-      </c>
-      <c r="K22" s="2" t="inlineStr">
-        <is>
-          <t>-8,61%</t>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>-0,27%</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>-7,42%</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>-6,7%</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>-5,75%</t>
         </is>
       </c>
     </row>
@@ -1655,47 +2273,77 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-6,79; 11,74</t>
+          <t>-7,33; 11,5</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-7,5; 10,61</t>
+          <t>-7,38; 10,31</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-14,55; 5,56</t>
+          <t>-8,32; 9,61</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-11,56; 7,37</t>
+          <t>-25,55; -6,96</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-10,36; 8,34</t>
+          <t>-22,23; -0,87</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-21,4; -1,0</t>
+          <t>-13,33; 6,72</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-6,66; 6,55</t>
+          <t>-10,36; 8,71</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-6,99; 6,44</t>
+          <t>-24,28; -1,59</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-15,26; -1,5</t>
+          <t>-8,65; 20,58</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>-10,53; 15,24</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>-7,04; 6,68</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>-5,91; 7,52</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>-13,73; 0,02</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>-15,45; 1,45</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>-13,97; 2,92</t>
         </is>
       </c>
     </row>
@@ -1712,47 +2360,77 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>0,17</t>
+          <t>-1,11</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>0,32</t>
+          <t>-0,47</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>0,17</t>
+          <t>-1,72</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>-1,52</t>
+          <t>-6,51</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>4,33</t>
+          <t>-7,34</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>-2,22</t>
+          <t>-1,74</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>-0,76</t>
+          <t>3,39</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>2,64</t>
+          <t>2,92</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>-1,23</t>
+          <t>-8,68</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>-3,65</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>-1,41</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>1,82</t>
+        </is>
+      </c>
+      <c r="O24" s="2" t="inlineStr">
+        <is>
+          <t>1,02</t>
+        </is>
+      </c>
+      <c r="P24" s="2" t="inlineStr">
+        <is>
+          <t>-7,82</t>
+        </is>
+      </c>
+      <c r="Q24" s="2" t="inlineStr">
+        <is>
+          <t>-5,21</t>
         </is>
       </c>
     </row>
@@ -1765,47 +2443,77 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-5,85; 7,74</t>
+          <t>-6,67; 4,94</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-5,9; 7,58</t>
+          <t>-6,27; 5,37</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-6,89; 8,24</t>
+          <t>-7,52; 4,43</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-8,79; 6,16</t>
+          <t>-14,1; 0,42</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-2,19; 11,9</t>
+          <t>-14,56; 0,92</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-11,82; 6,99</t>
+          <t>-8,58; 6,36</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-5,35; 4,9</t>
+          <t>-2,97; 11,01</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-1,89; 7,49</t>
+          <t>-7,66; 11,13</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-7,53; 4,71</t>
+          <t>-17,38; 3,39</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>-12,98; 7,15</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>-6,0; 4,31</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>-2,48; 7,42</t>
+        </is>
+      </c>
+      <c r="O25" s="2" t="inlineStr">
+        <is>
+          <t>-5,52; 6,8</t>
+        </is>
+      </c>
+      <c r="P25" s="2" t="inlineStr">
+        <is>
+          <t>-13,3; 0,68</t>
+        </is>
+      </c>
+      <c r="Q25" s="2" t="inlineStr">
+        <is>
+          <t>-11,35; 1,61</t>
         </is>
       </c>
     </row>
@@ -1818,47 +2526,77 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>0,18%</t>
+          <t>-1,19%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>0,35%</t>
+          <t>-0,5%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>0,18%</t>
+          <t>-1,86%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>-1,81%</t>
+          <t>-7,15%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>5,17%</t>
+          <t>-7,99%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>-2,65%</t>
+          <t>-2,08%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>-0,88%</t>
+          <t>4,05%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>3,03%</t>
+          <t>3,49%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>-1,41%</t>
+          <t>-10,02%</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>-4,47%</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>-1,61%</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>2,08%</t>
+        </is>
+      </c>
+      <c r="O26" s="2" t="inlineStr">
+        <is>
+          <t>1,17%</t>
+        </is>
+      </c>
+      <c r="P26" s="2" t="inlineStr">
+        <is>
+          <t>-8,83%</t>
+        </is>
+      </c>
+      <c r="Q26" s="2" t="inlineStr">
+        <is>
+          <t>-6,06%</t>
         </is>
       </c>
     </row>
@@ -1871,47 +2609,77 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-6,12; 8,85</t>
+          <t>-6,97; 5,45</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-6,25; 8,86</t>
+          <t>-6,61; 6,01</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-7,3; 9,63</t>
+          <t>-7,91; 4,92</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-10,1; 7,78</t>
+          <t>-15,01; 0,46</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-2,49; 14,85</t>
+          <t>-15,37; 1,05</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-13,49; 8,78</t>
+          <t>-9,78; 7,98</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-6,02; 5,79</t>
+          <t>-3,39; 14,15</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-2,11; 9,02</t>
+          <t>-8,78; 14,12</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-8,43; 5,58</t>
+          <t>-19,2; 4,23</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>-15,17; 9,47</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>-6,67; 5,11</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>-2,72; 8,96</t>
+        </is>
+      </c>
+      <c r="O27" s="2" t="inlineStr">
+        <is>
+          <t>-6,11; 7,9</t>
+        </is>
+      </c>
+      <c r="P27" s="2" t="inlineStr">
+        <is>
+          <t>-14,55; 0,83</t>
+        </is>
+      </c>
+      <c r="Q27" s="2" t="inlineStr">
+        <is>
+          <t>-12,99; 1,79</t>
         </is>
       </c>
     </row>
@@ -1928,47 +2696,77 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>-0,55</t>
+          <t>-0,16</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>-0,49</t>
+          <t>-0,12</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>-2,14</t>
+          <t>-3,55</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>-2,9</t>
+          <t>-3,59</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>-2,28</t>
+          <t>-5,61</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>-6,65</t>
+          <t>-3,28</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
+          <t>-2,43</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>-6,15</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>-0,67</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>-0,2</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
           <t>-1,74</t>
         </is>
       </c>
-      <c r="J28" s="2" t="inlineStr">
-        <is>
-          <t>-1,41</t>
-        </is>
-      </c>
-      <c r="K28" s="2" t="inlineStr">
-        <is>
-          <t>-4,31</t>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
+          <t>-1,3</t>
+        </is>
+      </c>
+      <c r="O28" s="2" t="inlineStr">
+        <is>
+          <t>-4,86</t>
+        </is>
+      </c>
+      <c r="P28" s="2" t="inlineStr">
+        <is>
+          <t>-2,04</t>
+        </is>
+      </c>
+      <c r="Q28" s="2" t="inlineStr">
+        <is>
+          <t>-2,92</t>
         </is>
       </c>
     </row>
@@ -1981,47 +2779,77 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-4,03; 3,06</t>
+          <t>-4,03; 3,27</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-4,28; 3,26</t>
+          <t>-3,85; 3,66</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-5,99; 2,18</t>
+          <t>-7,86; 0,65</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-6,3; 0,62</t>
+          <t>-7,6; 0,69</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-5,8; 1,26</t>
+          <t>-9,81; -1,37</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-10,52; -2,74</t>
+          <t>-6,46; -0,13</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-4,22; 0,64</t>
+          <t>-5,8; 0,92</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-3,87; 1,35</t>
+          <t>-10,25; -2,69</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-7,41; -1,73</t>
+          <t>-4,51; 3,44</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>-3,93; 4,0</t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
+          <t>-4,19; 0,71</t>
+        </is>
+      </c>
+      <c r="N29" s="2" t="inlineStr">
+        <is>
+          <t>-3,83; 1,32</t>
+        </is>
+      </c>
+      <c r="O29" s="2" t="inlineStr">
+        <is>
+          <t>-7,48; -2,12</t>
+        </is>
+      </c>
+      <c r="P29" s="2" t="inlineStr">
+        <is>
+          <t>-5,02; 0,7</t>
+        </is>
+      </c>
+      <c r="Q29" s="2" t="inlineStr">
+        <is>
+          <t>-6,07; -0,14</t>
         </is>
       </c>
     </row>
@@ -2034,47 +2862,77 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>-0,68%</t>
+          <t>-0,19%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>-0,61%</t>
+          <t>-0,15%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>-2,65%</t>
+          <t>-4,42%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>-3,93%</t>
+          <t>-4,67%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>-3,09%</t>
+          <t>-7,12%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>-9,01%</t>
+          <t>-4,45%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>-2,25%</t>
+          <t>-3,29%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>-1,83%</t>
+          <t>-8,33%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>-5,57%</t>
+          <t>-0,99%</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>-0,3%</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>-2,26%</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
+        <is>
+          <t>-1,69%</t>
+        </is>
+      </c>
+      <c r="O30" s="2" t="inlineStr">
+        <is>
+          <t>-6,32%</t>
+        </is>
+      </c>
+      <c r="P30" s="2" t="inlineStr">
+        <is>
+          <t>-2,83%</t>
+        </is>
+      </c>
+      <c r="Q30" s="2" t="inlineStr">
+        <is>
+          <t>-4,0%</t>
         </is>
       </c>
     </row>
@@ -2087,63 +2945,100 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-4,87; 3,93</t>
+          <t>-4,87; 4,17</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-5,16; 4,14</t>
+          <t>-4,59; 4,71</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-7,26; 2,75</t>
+          <t>-9,54; 0,83</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-8,34; 0,75</t>
+          <t>-9,72; 0,91</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-7,67; 1,72</t>
+          <t>-12,19; -1,82</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-14,07; -3,81</t>
+          <t>-8,64; -0,21</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-5,34; 0,86</t>
+          <t>-7,7; 1,26</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-4,98; 1,71</t>
+          <t>-13,46; -3,77</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-9,41; -2,29</t>
+          <t>-6,51; 5,27</t>
+        </is>
+      </c>
+      <c r="L31" s="2" t="inlineStr">
+        <is>
+          <t>-5,7; 6,22</t>
+        </is>
+      </c>
+      <c r="M31" s="2" t="inlineStr">
+        <is>
+          <t>-5,33; 0,94</t>
+        </is>
+      </c>
+      <c r="N31" s="2" t="inlineStr">
+        <is>
+          <t>-4,88; 1,75</t>
+        </is>
+      </c>
+      <c r="O31" s="2" t="inlineStr">
+        <is>
+          <t>-9,55; -2,76</t>
+        </is>
+      </c>
+      <c r="P31" s="2" t="inlineStr">
+        <is>
+          <t>-6,85; 0,99</t>
+        </is>
+      </c>
+      <c r="Q31" s="2" t="inlineStr">
+        <is>
+          <t>-8,22; -0,23</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A4:A7"/>
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="C1:G1"/>
     <mergeCell ref="A12:A15"/>
-    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A28:A31"/>
     <mergeCell ref="A20:A23"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="A16:A19"/>
+    <mergeCell ref="M1:Q1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
